--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_391__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_391__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,37 +5873,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>1.252832889556885</c:v>
+                  <c:v>1.252832293510437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.58416938781738</c:v>
+                  <c:v>21.58416748046875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-12.26489925384521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.5795726776123</c:v>
+                  <c:v>19.57957077026367</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>23.53963661193848</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.37494087219238</c:v>
+                  <c:v>25.37493515014648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.0240650177002</c:v>
+                  <c:v>26.02406120300293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.93956756591797</c:v>
+                  <c:v>17.93957138061523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.16938304901123</c:v>
+                  <c:v>14.1693811416626</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.01488876342773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.2025203704834</c:v>
+                  <c:v>22.20251846313477</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11.18252849578857</c:v>
@@ -5912,10 +5912,10 @@
                   <c:v>14.29396724700928</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.79170799255371</c:v>
+                  <c:v>23.79170417785645</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.04502296447754</c:v>
+                  <c:v>17.04502105712891</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20.73583793640137</c:v>
@@ -5930,7 +5930,7 @@
                   <c:v>21.90604591369629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.08713340759277</c:v>
+                  <c:v>28.08713722229004</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>24.26240539550781</c:v>
@@ -5939,64 +5939,64 @@
                   <c:v>32.2901611328125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.61857604980469</c:v>
+                  <c:v>15.61857795715332</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>32.45883941650391</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.53448867797852</c:v>
+                  <c:v>16.53449058532715</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.43684768676758</c:v>
+                  <c:v>20.43684959411621</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.56662940979004</c:v>
+                  <c:v>18.56663131713867</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.598720550537109</c:v>
+                  <c:v>8.598715782165527</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.78908920288086</c:v>
+                  <c:v>29.78909111022949</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.7293872833252</c:v>
+                  <c:v>13.72938442230225</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>17.33975219726562</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.46839141845703</c:v>
+                  <c:v>13.46838665008545</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>18.04802513122559</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.02658653259277</c:v>
+                  <c:v>20.02658271789551</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>24.70367050170898</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.69711494445801</c:v>
+                  <c:v>20.69712257385254</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.681041240692139</c:v>
+                  <c:v>5.681044578552246</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12.00720882415771</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>16.24475479125977</c:v>
+                  <c:v>16.2447509765625</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.99213790893555</c:v>
+                  <c:v>21.99213981628418</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.98856163024902</c:v>
+                  <c:v>19.98855781555176</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.46421813964844</c:v>
+                  <c:v>14.46422290802002</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>23.69024658203125</c:v>
@@ -6008,13 +6008,13 @@
                   <c:v>20.51656150817871</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.179925441741943</c:v>
+                  <c:v>6.179926872253418</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>12.82355499267578</c:v>
+                  <c:v>12.82355976104736</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.43043899536133</c:v>
+                  <c:v>17.43043327331543</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>18.57443618774414</c:v>
@@ -6026,28 +6026,28 @@
                   <c:v>4.662910938262939</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.83776187896729</c:v>
+                  <c:v>11.83775997161865</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>20.1347770690918</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.37689781188965</c:v>
+                  <c:v>14.3769006729126</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>19.5060977935791</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.88138008117676</c:v>
+                  <c:v>19.88137817382812</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.13805198669434</c:v>
+                  <c:v>13.13805389404297</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>18.51428604125977</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>17.5722541809082</c:v>
+                  <c:v>17.57225608825684</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>21.06089973449707</c:v>
@@ -6059,31 +6059,31 @@
                   <c:v>17.01091957092285</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.73493003845215</c:v>
+                  <c:v>18.73492813110352</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>15.12824249267578</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20.22965049743652</c:v>
+                  <c:v>20.22965240478516</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.49500751495361</c:v>
+                  <c:v>14.49500465393066</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>29.03012084960938</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>24.37618827819824</c:v>
+                  <c:v>24.37618446350098</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.799546241760254</c:v>
+                  <c:v>1.799544453620911</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20.72339057922363</c:v>
+                  <c:v>20.7233943939209</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>24.115478515625</c:v>
+                  <c:v>24.11548233032227</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>20.01955604553223</c:v>
@@ -6095,16 +6095,16 @@
                   <c:v>8.19477653503418</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.40150833129883</c:v>
+                  <c:v>28.40150260925293</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>12.84328842163086</c:v>
+                  <c:v>12.84328556060791</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.437188148498535</c:v>
+                  <c:v>6.437186717987061</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.903998374938965</c:v>
+                  <c:v>6.903993606567383</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>13.08364200592041</c:v>
@@ -6113,10 +6113,10 @@
                   <c:v>18.91228294372559</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.03329086303711</c:v>
+                  <c:v>16.03328895568848</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.21100616455078</c:v>
+                  <c:v>19.21100807189941</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>26.0036792755127</c:v>
@@ -6125,25 +6125,25 @@
                   <c:v>23.75798034667969</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.19403839111328</c:v>
+                  <c:v>15.19403648376465</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>24.11885261535645</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8.503732681274414</c:v>
+                  <c:v>8.503731727600098</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>29.02885055541992</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20.12569236755371</c:v>
+                  <c:v>20.12568664550781</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.06115913391113</c:v>
+                  <c:v>15.06116390228271</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>19.51769828796387</c:v>
+                  <c:v>19.5176944732666</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>13.01245975494385</c:v>
@@ -6155,16 +6155,16 @@
                   <c:v>21.80933952331543</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>11.39357948303223</c:v>
+                  <c:v>11.39357757568359</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>22.22583770751953</c:v>
+                  <c:v>22.22583389282227</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>17.90664863586426</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>19.85905456542969</c:v>
+                  <c:v>19.85905075073242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.252832889556885</v>
+        <v>1.252832293510437</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>21.58416938781738</v>
+        <v>21.58416748046875</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.5795726776123</v>
+        <v>19.57957077026367</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.37494087219238</v>
+        <v>25.37493515014648</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.0240650177002</v>
+        <v>26.02406120300293</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.93956756591797</v>
+        <v>17.93957138061523</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>14.16938304901123</v>
+        <v>14.1693811416626</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.2025203704834</v>
+        <v>22.20251846313477</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.79170799255371</v>
+        <v>23.79170417785645</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>17.04502296447754</v>
+        <v>17.04502105712891</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.08713340759277</v>
+        <v>28.08713722229004</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.61857604980469</v>
+        <v>15.61857795715332</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>16.53448867797852</v>
+        <v>16.53449058532715</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>20.43684768676758</v>
+        <v>20.43684959411621</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>18.56662940979004</v>
+        <v>18.56663131713867</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>8.598720550537109</v>
+        <v>8.598715782165527</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>29.78908920288086</v>
+        <v>29.78909111022949</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>13.7293872833252</v>
+        <v>13.72938442230225</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>13.46839141845703</v>
+        <v>13.46838665008545</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>20.02658653259277</v>
+        <v>20.02658271789551</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>20.69711494445801</v>
+        <v>20.69712257385254</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>5.681041240692139</v>
+        <v>5.681044578552246</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>16.24475479125977</v>
+        <v>16.2447509765625</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>21.99213790893555</v>
+        <v>21.99213981628418</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>19.98856163024902</v>
+        <v>19.98855781555176</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>14.46421813964844</v>
+        <v>14.46422290802002</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>6.179925441741943</v>
+        <v>6.179926872253418</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>12.82355499267578</v>
+        <v>12.82355976104736</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>17.43043899536133</v>
+        <v>17.43043327331543</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>11.83776187896729</v>
+        <v>11.83775997161865</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>14.37689781188965</v>
+        <v>14.3769006729126</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>19.88138008117676</v>
+        <v>19.88137817382812</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>13.13805198669434</v>
+        <v>13.13805389404297</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>17.5722541809082</v>
+        <v>17.57225608825684</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>18.73493003845215</v>
+        <v>18.73492813110352</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>20.22965049743652</v>
+        <v>20.22965240478516</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>14.49500751495361</v>
+        <v>14.49500465393066</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>24.37618827819824</v>
+        <v>24.37618446350098</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>1.799546241760254</v>
+        <v>1.799544453620911</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>20.72339057922363</v>
+        <v>20.7233943939209</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>24.115478515625</v>
+        <v>24.11548233032227</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>28.40150833129883</v>
+        <v>28.40150260925293</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>12.84328842163086</v>
+        <v>12.84328556060791</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>6.437188148498535</v>
+        <v>6.437186717987061</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>6.903998374938965</v>
+        <v>6.903993606567383</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.03329086303711</v>
+        <v>16.03328895568848</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.21100616455078</v>
+        <v>19.21100807189941</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>15.19403839111328</v>
+        <v>15.19403648376465</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>8.503732681274414</v>
+        <v>8.503731727600098</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>20.12569236755371</v>
+        <v>20.12568664550781</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>15.06115913391113</v>
+        <v>15.06116390228271</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>19.51769828796387</v>
+        <v>19.5176944732666</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>11.39357948303223</v>
+        <v>11.39357757568359</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>22.22583770751953</v>
+        <v>22.22583389282227</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>19.85905456542969</v>
+        <v>19.85905075073242</v>
       </c>
     </row>
     <row r="100" spans="1:6">
